--- a/result/TestingResult.xlsx
+++ b/result/TestingResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProject\NoiseEffectOnQImgRep\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A18CF9-6AC1-4411-A809-08E188355A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C3498-454E-4898-93B0-D01768EE9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="885" windowWidth="21600" windowHeight="11295" xr2:uid="{722F8BA1-F4C7-4D55-B128-0EC2ECEBFD4A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{722F8BA1-F4C7-4D55-B128-0EC2ECEBFD4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="33">
   <si>
     <t>Encodings</t>
   </si>
@@ -132,13 +132,16 @@
   </si>
   <si>
     <t>[0.05, 0.1, 0.15, 0.2, 0.25, 0.3, 0.35]</t>
+  </si>
+  <si>
+    <t>u1, u2, u3, cx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +202,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,123 +544,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D88AE6-5BED-4FD6-8F6A-7348CF76330F}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
-    <col min="5" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2126.44</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="J2" s="4">
+        <v>115.07599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>20000</v>
+      </c>
+      <c r="H3">
+        <v>2.42</v>
+      </c>
+      <c r="I3">
+        <v>0.999</v>
+      </c>
+      <c r="J3">
+        <v>199.82499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>32</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>670.28700000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J4" s="1">
+        <v>185.97900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -674,23 +713,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -706,39 +737,39 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1110.174</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.748</v>
-      </c>
-      <c r="J9" s="2">
-        <v>148.589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9">
+        <v>20000</v>
+      </c>
+      <c r="H9">
+        <v>216.57400000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J9">
+        <v>184.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>32</v>
@@ -759,34 +790,27 @@
         <v>20000</v>
       </c>
       <c r="H10" s="1">
-        <v>6496.8389999999999</v>
+        <v>6431.0069999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>0.35599999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>40.268999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
+        <v>49.951999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -804,57 +828,57 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20000</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -870,137 +894,197 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9700.2639999999992</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J18" s="1">
+        <v>18.009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>20000</v>
+      </c>
+      <c r="H19">
+        <v>8646.5460000000003</v>
+      </c>
+      <c r="I19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>13.705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2687.9479999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>104.099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>20000</v>
+      </c>
+      <c r="H21">
+        <v>8803.6450000000004</v>
+      </c>
+      <c r="I21">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J21">
+        <v>12.846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>96.378</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J22" s="1">
+        <v>195.761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23">
+        <v>20000</v>
+      </c>
+      <c r="H23">
         <v>2726.576</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>0.63100000000000001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>102.94</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1092,9 @@
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,125 +1104,222 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>20000</v>
+      </c>
+      <c r="H25">
+        <v>114.539</v>
+      </c>
+      <c r="I25">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J25">
+        <v>194.17400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>16</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3016.9160000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>98.820999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>20000</v>
+      </c>
+      <c r="H27">
+        <v>13743.111999999999</v>
+      </c>
+      <c r="I27">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="J27">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2" t="s">
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>14167.791999999999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>41.412999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>20000</v>
+      </c>
+      <c r="H29">
+        <v>9901.5969999999998</v>
+      </c>
+      <c r="I29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>16</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10410.998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>22.981999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>20000</v>
+      </c>
+      <c r="H31">
+        <v>3560.5189999999998</v>
+      </c>
+      <c r="I31">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="J31">
+        <v>78.471999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1148,19 +1331,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1172,19 +1343,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1196,19 +1355,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1220,19 +1367,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1244,19 +1379,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1268,19 +1391,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1292,17 +1403,17 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/TestingResult.xlsx
+++ b/result/TestingResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\PycharmProject\NoiseEffectOnQImgRep\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9C3498-454E-4898-93B0-D01768EE9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB70336-38B1-4AB8-9697-7119687100E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{722F8BA1-F4C7-4D55-B128-0EC2ECEBFD4A}"/>
+    <workbookView xWindow="6495" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{722F8BA1-F4C7-4D55-B128-0EC2ECEBFD4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
   <si>
     <t>Encodings</t>
   </si>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D88AE6-5BED-4FD6-8F6A-7348CF76330F}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,9 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1098,11 +1100,21 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20000</v>
+      </c>
+      <c r="H24" s="1">
+        <v>14682.44</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>29.690999999999999</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
